--- a/medicine/Enfance/Jérôme_Lambert_(écrivain)/Jérôme_Lambert_(écrivain).xlsx
+++ b/medicine/Enfance/Jérôme_Lambert_(écrivain)/Jérôme_Lambert_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Lambert_(%C3%A9crivain)</t>
+          <t>Jérôme_Lambert_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jérôme Lambert, né à Nantes le 15 avril 1975, est un romancier français. Il vit à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Lambert_(%C3%A9crivain)</t>
+          <t>Jérôme_Lambert_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études de lettres, il est documentaliste aux éditions L'École des loisirs avant de s'occuper du service presse, puis de la formation des enseignants[1]. Après 6 années au service de presse des Éditions Points, il occupe aujourd'hui ces fonctions aux Editions des Arènes.
-Il est également traducteur d'œuvres de Chaïm Potok, Jerry Spinelli ou Nick McDonell[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études de lettres, il est documentaliste aux éditions L'École des loisirs avant de s'occuper du service presse, puis de la formation des enseignants. Après 6 années au service de presse des Éditions Points, il occupe aujourd'hui ces fonctions aux Editions des Arènes.
+Il est également traducteur d'œuvres de Chaïm Potok, Jerry Spinelli ou Nick McDonell.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Lambert_(%C3%A9crivain)</t>
+          <t>Jérôme_Lambert_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Romans</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Littérature jeunesse
 coll. 
